--- a/public/uploads/contact_list.xlsx
+++ b/public/uploads/contact_list.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Last</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>0897382470</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Dtac</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -177,11 +183,64 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="TH Sarabun New"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="TH Sarabun New"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -280,21 +339,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color auto="1"/>
-        <name val="TH Sarabun New"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color theme="0"/>
         <name val="TH Sarabun New"/>
         <family val="2"/>
@@ -316,13 +360,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9754C65-E538-4F3D-9498-B047CB3E88D4}" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D6" xr:uid="{03E0B676-8CEC-4410-A25B-CE67B184A659}"/>
-  <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{3D5CE9FE-7EFB-4487-B971-59E1A572D73E}" name="First" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C82481DD-3F2A-42C8-AADC-0C2862212989}" name="Last" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{71601EB8-C538-482E-BA3B-D32FD04C0222}" name="Tel" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{AC6360D9-D3A8-4E9F-942E-F4564FCC3F4C}" name="Meg" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9754C65-E538-4F3D-9498-B047CB3E88D4}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E6" xr:uid="{03E0B676-8CEC-4410-A25B-CE67B184A659}"/>
+  <tableColumns count="5">
+    <tableColumn id="6" xr3:uid="{BB5902DB-A02D-4CAB-8CAC-63CAB5636C6A}" name="First" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{68FC58C3-09AE-4BA7-8EC2-EF3735551FD4}" name="Last" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C82481DD-3F2A-42C8-AADC-0C2862212989}" name="Tel" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{71601EB8-C538-482E-BA3B-D32FD04C0222}" name="Mobile" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{AC6360D9-D3A8-4E9F-942E-F4564FCC3F4C}" name="Meg" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -625,22 +670,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B6EB25-0901-4D40-8639-DB5848A5A3C8}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.09765625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.09765625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" ht="24.6" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -651,10 +696,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -664,11 +712,14 @@
       <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="24.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -678,11 +729,14 @@
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="24.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -692,11 +746,14 @@
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="24.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -706,11 +763,14 @@
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="24.6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -720,7 +780,10 @@
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
